--- a/BOM Frequency ReferenceV1_1c.xlsx
+++ b/BOM Frequency ReferenceV1_1c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Frequency Reference 10MHz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE2C7299-0971-4AC3-9011-7B4062227129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1E6ED5-905D-42AB-8F35-73BF96D38A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="720" windowWidth="27495" windowHeight="16275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
   <si>
     <t>Designator</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Generic</t>
+  </si>
+  <si>
+    <t>CSR1206FKR500CT-ND will also fit, R4 is optional and can be bridged</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1363,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,7 +1375,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1725,7 +1728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1867,8 +1870,11 @@
       <c r="G23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>83</v>
       </c>
